--- a/biology/Zoologie/Chodsigoa_parca/Chodsigoa_parca.xlsx
+++ b/biology/Zoologie/Chodsigoa_parca/Chodsigoa_parca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chodsigoa parca est une espèce de petits mammifères insectivores de la famille des Soricidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette musaraigne se rencontre en Birmanie, en Chine, au Thaïlande et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette musaraigne se rencontre en Birmanie, en Chine, au Thaïlande et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 juin 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 juin 2023) :
 Chodsigoa parca furva Anthony, 1941
 Chodsigoa parca lowei Osgood, 1932
 Chodsigoa parca parca Allen, 1923</t>
@@ -575,13 +591,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chodsigoa parca G.M. Allen, 1923[2].
-Cette espèce est initialement décrite en 1923 par le zoologiste américain Glover Morrill Allen (1879-1942) comme étant une sous-espèce de Chodsigoa smithii sous le protonyme Chodsigoa smithii parca[3]. En 1985, le zoologiste américain Robert S. Hoffmann (d) (1929-2010) élève cette sous-espèce au rang d'espèce à part entière sous son taxon actuel, Chodsigoa parca[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chodsigoa parca G.M. Allen, 1923.
+Cette espèce est initialement décrite en 1923 par le zoologiste américain Glover Morrill Allen (1879-1942) comme étant une sous-espèce de Chodsigoa smithii sous le protonyme Chodsigoa smithii parca. En 1985, le zoologiste américain Robert S. Hoffmann (d) (1929-2010) élève cette sous-espèce au rang d'espèce à part entière sous son taxon actuel, Chodsigoa parca,.
 Chodsigoa parca a pour synonyme :
-Soriculus parca (G.M.Allen, 1923)[2]
-Chodsigoa smithii parca G.M.Allen, 1923[5]</t>
+Soriculus parca (G.M.Allen, 1923)
+Chodsigoa smithii parca G.M.Allen, 1923</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Glover M. Allen, « New Chinese insectivores », American Museum Novitates, New York, Musée américain d'histoire naturelle, vol. 100,‎ 28 décembre 1923, p. 1-11 (ISSN 0003-0082 et 1937-352X, OCLC 47720325, lire en ligne)</t>
         </is>
